--- a/data/trans_dic/P1418-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1418-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.05595305269223718</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.07041902250923805</v>
+        <v>0.07041902250923807</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03881876821942313</v>
+        <v>0.03826621686462452</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01887480476414813</v>
+        <v>0.01902215340813086</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02332910718441916</v>
+        <v>0.02166656003649057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03213267130949909</v>
+        <v>0.03241699870783293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06580110163429638</v>
+        <v>0.06664239805097487</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07776719569332111</v>
+        <v>0.07671874205281633</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05859711174578606</v>
+        <v>0.05868478396197706</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07770572061012511</v>
+        <v>0.0799341291304462</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05697901628796956</v>
+        <v>0.05652365327139363</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05177854356261936</v>
+        <v>0.05214798263888625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04452849680546676</v>
+        <v>0.04402171801299234</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05961438120405309</v>
+        <v>0.06098241148763159</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07219731746842098</v>
+        <v>0.07277516521785839</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04477938681109035</v>
+        <v>0.04489895672524777</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05061654549575852</v>
+        <v>0.05028060655407706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06281861512708953</v>
+        <v>0.06175944180441916</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1085391688604922</v>
+        <v>0.1100456713250577</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1266247014023474</v>
+        <v>0.1240937021677665</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1010193061252411</v>
+        <v>0.1027765221425971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1113872018291715</v>
+        <v>0.1118204941223992</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08325411235836667</v>
+        <v>0.08371909174755159</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0795628585677922</v>
+        <v>0.0801235544411102</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06917995727677781</v>
+        <v>0.07019125484561878</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.080601995910511</v>
+        <v>0.08304977651642158</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.06277578293983312</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08419819891582304</v>
+        <v>0.08419819891582306</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.07657048355964106</v>
@@ -833,7 +833,7 @@
         <v>0.04358469892692463</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06198152707579068</v>
+        <v>0.06198152707579069</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.041832471382469</v>
+        <v>0.04339243510319025</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02685338790762681</v>
+        <v>0.0257284893480518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01620348724658615</v>
+        <v>0.0160216429044288</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02983376293512268</v>
+        <v>0.03034292045356201</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0785322335550671</v>
+        <v>0.07743284816708219</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08455621528546201</v>
+        <v>0.08477508013565908</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04852438194421579</v>
+        <v>0.04730654674036183</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07246817435540402</v>
+        <v>0.07196904389132798</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06353735429724493</v>
+        <v>0.06489307486952693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05874727342701411</v>
+        <v>0.05969198572409388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03470044719091501</v>
+        <v>0.03492077410818235</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05396932547013097</v>
+        <v>0.05383391359528818</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07189719567571919</v>
+        <v>0.07262212656342779</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05104869105946316</v>
+        <v>0.05198324846336072</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03482614916141496</v>
+        <v>0.03531780809744297</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05227018678646006</v>
+        <v>0.0522726783462021</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1164913126924737</v>
+        <v>0.115647035989218</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1223444465578383</v>
+        <v>0.1229414497786924</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08110663905445849</v>
+        <v>0.07840211759844315</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09949900366679144</v>
+        <v>0.09952606294658582</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08855951205861863</v>
+        <v>0.08965997104553879</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08336492289084642</v>
+        <v>0.08164972925051832</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05317805871992226</v>
+        <v>0.05307375773180858</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07078342819596987</v>
+        <v>0.07086718795911415</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.02302945051526761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04444761567161235</v>
+        <v>0.04444761567161236</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1136727967765291</v>
@@ -957,7 +957,7 @@
         <v>0.07535509900849137</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08183874515606751</v>
+        <v>0.08183874515606754</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.08292734495985561</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03597548310540614</v>
+        <v>0.0369946987428651</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01917457219361697</v>
+        <v>0.01838170293260618</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01306069272465307</v>
+        <v>0.01310158241307808</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03102139201391311</v>
+        <v>0.03286090414452925</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09381298087913002</v>
+        <v>0.08895544935183973</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05912466386173663</v>
+        <v>0.05974113496561776</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05628392595683587</v>
+        <v>0.05699838259022436</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06775224760547335</v>
+        <v>0.06755128279008597</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06848226664540276</v>
+        <v>0.06819437580119096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04326253888517639</v>
+        <v>0.04359845410174001</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03914037943774928</v>
+        <v>0.03867538165878113</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05409319271254531</v>
+        <v>0.05208689085557044</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07163348447824283</v>
+        <v>0.0719915237607508</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04915368730673401</v>
+        <v>0.04977780638677837</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0368375238409145</v>
+        <v>0.03527423836399717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06150241662519772</v>
+        <v>0.06188115915268497</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1377768779243872</v>
+        <v>0.1390063764115954</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1019889641920041</v>
+        <v>0.09979238350655273</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09817399196541669</v>
+        <v>0.09888292099661627</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1015282384072237</v>
+        <v>0.1001994810900913</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09740255586902308</v>
+        <v>0.09831118981250044</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06859928012924603</v>
+        <v>0.06869231025802983</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06260821641366256</v>
+        <v>0.06241571894233068</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07593134675141311</v>
+        <v>0.07483662559782737</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04285051475768235</v>
+        <v>0.04353927558893458</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01613142630146493</v>
+        <v>0.01616195634445742</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01017026822996518</v>
+        <v>0.01070820316567998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03140500889428684</v>
+        <v>0.03179641383144789</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09045180221847082</v>
+        <v>0.09159421739163318</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08714778472495534</v>
+        <v>0.08745814378828733</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05794214098830607</v>
+        <v>0.05646370986787961</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07779045115589386</v>
+        <v>0.07981375362684533</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07211785660201592</v>
+        <v>0.07225286396842291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05636485433061191</v>
+        <v>0.05603280709246024</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03762924018512123</v>
+        <v>0.03745381054022093</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06011670297670908</v>
+        <v>0.05977863515347608</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0715477280212557</v>
+        <v>0.07135182080535206</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03712002352733999</v>
+        <v>0.03765852132524792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0278371516697069</v>
+        <v>0.02888462228696864</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05709023007644226</v>
+        <v>0.05759629298031788</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1280752452180912</v>
+        <v>0.1285300687968149</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1273768028302536</v>
+        <v>0.1281138597382168</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09310876982172274</v>
+        <v>0.09019042951269594</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1073462455537549</v>
+        <v>0.1090341784278054</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09697530389371938</v>
+        <v>0.09682795014979986</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0801215897213132</v>
+        <v>0.07821527505342864</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0584451356291345</v>
+        <v>0.05826545231513335</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07962153028072672</v>
+        <v>0.07895445511482124</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.04825477660544995</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.06597369215231894</v>
+        <v>0.06597369215231895</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04694640332685313</v>
+        <v>0.04708071442919359</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02544235998302219</v>
+        <v>0.02580217207848792</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01925639087437507</v>
+        <v>0.01873875751170737</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03562357527453462</v>
+        <v>0.03612528513353642</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09103075032187732</v>
+        <v>0.09155668408846129</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08714138554950125</v>
+        <v>0.08702727734588986</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06120543468530249</v>
+        <v>0.06223484068968935</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0811544810072912</v>
+        <v>0.08116516470477296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07144356442974042</v>
+        <v>0.07167498521495064</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05941895951808796</v>
+        <v>0.05880016043080721</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04311381340881379</v>
+        <v>0.04356867484366349</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.06108403310621778</v>
+        <v>0.06161691223665149</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06311103665684875</v>
+        <v>0.06360439387234765</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03798949828198563</v>
+        <v>0.03780106521180109</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03037327066976976</v>
+        <v>0.02947860663555106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.04884153538639274</v>
+        <v>0.04939330593172553</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1123433959369891</v>
+        <v>0.1126422731976497</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1078140056600563</v>
+        <v>0.1069975834415899</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07969049438685875</v>
+        <v>0.08095498076283243</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09561634275867957</v>
+        <v>0.09642768722399776</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08485909684550449</v>
+        <v>0.08497066717122505</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.07205945094544505</v>
+        <v>0.0713043782502495</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05383527573786068</v>
+        <v>0.05381226858868261</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07108793492571847</v>
+        <v>0.07153012424160966</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26941</v>
+        <v>26557</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13278</v>
+        <v>13381</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15742</v>
+        <v>14621</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22194</v>
+        <v>22391</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>45294</v>
+        <v>45873</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>54208</v>
+        <v>53477</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39426</v>
+        <v>39485</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>56915</v>
+        <v>58547</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>78766</v>
+        <v>78136</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>72517</v>
+        <v>73034</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>60008</v>
+        <v>59325</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>84840</v>
+        <v>86787</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50106</v>
+        <v>50507</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>31501</v>
+        <v>31585</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34156</v>
+        <v>33929</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43389</v>
+        <v>42658</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>74713</v>
+        <v>75750</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>88264</v>
+        <v>86500</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>67970</v>
+        <v>69152</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>81584</v>
+        <v>81901</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>115087</v>
+        <v>115730</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>111429</v>
+        <v>112215</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>93230</v>
+        <v>94592</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>114708</v>
+        <v>118192</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40234</v>
+        <v>41735</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>27335</v>
+        <v>26190</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16567</v>
+        <v>16381</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>31251</v>
+        <v>31785</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>76050</v>
+        <v>74985</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>87006</v>
+        <v>87231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>50607</v>
+        <v>49337</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>77400</v>
+        <v>76867</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>122639</v>
+        <v>125256</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>120251</v>
+        <v>122185</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>71668</v>
+        <v>72123</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>114176</v>
+        <v>113890</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>69151</v>
+        <v>69848</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>51965</v>
+        <v>52916</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35607</v>
+        <v>36110</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>54754</v>
+        <v>54757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>112809</v>
+        <v>111992</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>125889</v>
+        <v>126503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>84587</v>
+        <v>81767</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>106270</v>
+        <v>106299</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>170937</v>
+        <v>173061</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>170641</v>
+        <v>167131</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>109831</v>
+        <v>109616</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>149748</v>
+        <v>149925</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24410</v>
+        <v>25101</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14527</v>
+        <v>13926</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9920</v>
+        <v>9951</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24820</v>
+        <v>26291</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>64153</v>
+        <v>60831</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>45950</v>
+        <v>46429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44184</v>
+        <v>44744</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54827</v>
+        <v>54665</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>93297</v>
+        <v>92905</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66399</v>
+        <v>66915</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>60455</v>
+        <v>59737</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>87053</v>
+        <v>83824</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48604</v>
+        <v>48847</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>37240</v>
+        <v>37713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27980</v>
+        <v>26793</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49207</v>
+        <v>49510</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>94217</v>
+        <v>95058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>79263</v>
+        <v>77556</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>77068</v>
+        <v>77624</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>82160</v>
+        <v>81084</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>132696</v>
+        <v>133934</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>105286</v>
+        <v>105429</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>96702</v>
+        <v>96405</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>122197</v>
+        <v>120436</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40375</v>
+        <v>41024</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15288</v>
+        <v>15317</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9535</v>
+        <v>10040</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31059</v>
+        <v>31446</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>93944</v>
+        <v>95131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>91580</v>
+        <v>91906</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>60479</v>
+        <v>58936</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>86792</v>
+        <v>89050</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>142854</v>
+        <v>143121</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>112650</v>
+        <v>111987</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>74557</v>
+        <v>74209</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>126527</v>
+        <v>125815</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>67414</v>
+        <v>67229</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35180</v>
+        <v>35690</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26099</v>
+        <v>27081</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>56460</v>
+        <v>56961</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>133020</v>
+        <v>133493</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>133855</v>
+        <v>134629</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>97185</v>
+        <v>94139</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>119768</v>
+        <v>121652</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>192092</v>
+        <v>191800</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>160131</v>
+        <v>156321</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>115800</v>
+        <v>115444</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>167578</v>
+        <v>166174</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>153822</v>
+        <v>154262</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>87185</v>
+        <v>88418</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>65363</v>
+        <v>63606</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>125654</v>
+        <v>127424</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>307611</v>
+        <v>309388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>309705</v>
+        <v>309299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>216945</v>
+        <v>220594</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>302336</v>
+        <v>302376</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>475510</v>
+        <v>477050</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>414794</v>
+        <v>410474</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>299162</v>
+        <v>302318</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>443025</v>
+        <v>446890</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>206786</v>
+        <v>208403</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>130182</v>
+        <v>129536</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>103098</v>
+        <v>100061</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>172278</v>
+        <v>174224</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>379630</v>
+        <v>380640</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>383177</v>
+        <v>380275</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>282466</v>
+        <v>286948</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>356213</v>
+        <v>359236</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>564800</v>
+        <v>565543</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>503035</v>
+        <v>497764</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>373557</v>
+        <v>373398</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>515581</v>
+        <v>518788</v>
       </c>
     </row>
     <row r="24">
